--- a/Data/user.xlsx
+++ b/Data/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\JAVA\test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B46A6719-A1B9-469A-9A2C-9CAE2E734F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED25B52-C541-4D03-8BC6-56B57D70EB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30ADE324-A160-42D3-896F-75133816946D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>pass</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>jiji142536</t>
+  </si>
+  <si>
+    <t>cmido866@yahoo.com</t>
+  </si>
+  <si>
+    <t>huhu142536</t>
   </si>
 </sst>
 </file>
@@ -430,15 +436,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78EE341-09CC-40A2-A4C0-5D35B14A2CDE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -457,9 +464,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{B986C3AF-27DD-4A34-8D87-4E11E7B14EFE}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{F3B6656C-13FC-4EC3-92D9-FDD66BAC103A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
